--- a/src/main/resources/DataFile.xlsx
+++ b/src/main/resources/DataFile.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ProjectAutomationTest\pj1\orangehrm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC12C90-CF65-498E-937F-1D2A31D5EA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6BF1F-68CC-4389-BA91-53E42BAE3C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="5" xr2:uid="{7F87C43A-5F9F-403E-B811-8C20C7C66F78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F87C43A-5F9F-403E-B811-8C20C7C66F78}"/>
   </bookViews>
   <sheets>
-    <sheet name="PIMData" sheetId="1" r:id="rId1"/>
-    <sheet name="AdminUserManagementData" sheetId="2" r:id="rId2"/>
-    <sheet name="AdminJobTitleData" sheetId="3" r:id="rId3"/>
-    <sheet name="AdminJobCategoriesData" sheetId="4" r:id="rId4"/>
-    <sheet name="AdminEmploymentStatusData" sheetId="5" r:id="rId5"/>
-    <sheet name="AdminLocationData" sheetId="6" r:id="rId6"/>
+    <sheet name="LoginData" sheetId="7" r:id="rId1"/>
+    <sheet name="PIMData" sheetId="1" r:id="rId2"/>
+    <sheet name="AdminUserManagementData" sheetId="2" r:id="rId3"/>
+    <sheet name="AdminJobTitleData" sheetId="3" r:id="rId4"/>
+    <sheet name="AdminJobCategoriesData" sheetId="4" r:id="rId5"/>
+    <sheet name="AdminEmploymentStatusData" sheetId="5" r:id="rId6"/>
+    <sheet name="AdminLocationData" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="313">
   <si>
     <t>Timothy Lewis Amiano</t>
   </si>
@@ -977,6 +978,9 @@
   </si>
   <si>
     <t>Ba Ria Vung Tau</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1046,6 +1050,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1379,6 +1384,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0E00EC-4CBA-47EE-9149-8B68E6E5CAAD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21888386-0736-4866-B3DF-BCBE5F5F7E83}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -1775,7 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871965A6-41D9-4773-B388-D9B55BD19E9C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -2217,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2756C5B-DD07-4982-A6EB-BC06AB10CA2A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2531,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16529B-346E-4A1B-9BB5-7676000C9EE0}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2718,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0257273D-1296-4802-A83B-1AE35372021A}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2904,11 +2944,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932FDD43-D5A5-44BE-A019-4CE58E0FD3F5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
